--- a/data/income_statement/2digits/total/24_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/24_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>24-Manufacture of basic metals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>24-Manufacture of basic metals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,131 +841,151 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>49098623.87086</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>64486481.70277999</v>
+        <v>64486481.70278001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>91196728.75751001</v>
+        <v>93382006.59375</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>94197350.55304001</v>
+        <v>98144966.50713003</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>102561321.62925</v>
+        <v>103019202.10087</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>110543590.12166</v>
+        <v>117834049.69725</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>113169775.16419</v>
+        <v>121573882.2644</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>126230394.27812</v>
+        <v>127263173.33022</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>192172979.76294</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>272675096.5954</v>
+        <v>272703501.39557</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>267155475.97957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>267878448.8064901</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>331617646.346</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>30677793.06521</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>42692244.47654</v>
+        <v>42692244.47654001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>61114853.84099</v>
+        <v>62870358.3602</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>64119039.04302</v>
+        <v>66393437.38328</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>71377602.47831002</v>
+        <v>71832342.92823002</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>77872759.9587</v>
+        <v>84259646.97576001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>83022600.64142999</v>
+        <v>89136851.60231999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>92979946.66555999</v>
+        <v>93932041.91329999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>141295040.78324</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>180192256.48587</v>
+        <v>180219958.88723</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>172172320.77967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>172749922.65597</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>225041860.997</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>17957802.24735</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>20972822.38888999</v>
+        <v>20972822.38889</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>28845053.89399</v>
+        <v>29211701.52799</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>29019974.40126</v>
+        <v>30692986.29711999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>30128815.67603</v>
+        <v>30128981.62972</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>31707310.99435</v>
+        <v>32415672.65861</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>28813552.6674</v>
+        <v>30947932.98499</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>31671357.20876</v>
+        <v>31749579.0032</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>48968760.93769</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>89589226.02275999</v>
+        <v>89589787.09746002</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>92151216.89923999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>92286439.12804002</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>103112239.574</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>463028.5583</v>
@@ -1073,115 +994,130 @@
         <v>821414.83735</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1236821.02253</v>
+        <v>1299946.70556</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1058337.10876</v>
+        <v>1058542.82673</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1054903.47491</v>
+        <v>1057877.54292</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>963519.1686100001</v>
+        <v>1158730.06288</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1333621.85536</v>
+        <v>1489097.67709</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1579090.4038</v>
+        <v>1581552.41372</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1909178.04201</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2893614.086769999</v>
+        <v>2893755.410880001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2831938.30066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2842087.02248</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3463545.775</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>771500.5906200001</v>
+        <v>771500.59062</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>649890.1799100001</v>
+        <v>649890.1799099999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>829140.30386</v>
+        <v>870536.8291700002</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>804296.0577600001</v>
+        <v>860919.60947</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>817677.7444300001</v>
+        <v>818206.6324800001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1619869.49994</v>
+        <v>1679029.11885</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1266068.7812</v>
+        <v>1373854.28125</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1489817.76937</v>
+        <v>1496589.46717</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1776836.36439</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3584878.70452</v>
+        <v>3584882.26652</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2924946.480729999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2942070.418899999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2948351.619</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>235550.86749</v>
+        <v>235550.8674899999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>171060.77201</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>239282.30431</v>
+        <v>244821.81751</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>233210.65274</v>
+        <v>239961.50238</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>257026.55043</v>
+        <v>257045.58333</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>907332.5218800001</v>
+        <v>909187.05616</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>387296.0629</v>
+        <v>442054.2959900001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>462719.89795</v>
+        <v>464494.6180099999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>643812.30869</v>
+        <v>643812.3086900002</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>982855.35824</v>
+        <v>982858.9202400001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>886354.8415799999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>894548.6690499999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1059583.502</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>269545.61939</v>
@@ -1193,34 +1129,39 @@
         <v>325435.42212</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>308712.66129</v>
+        <v>313707.8425800001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>302317.1012399999</v>
+        <v>302317.10124</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>362546.15569</v>
+        <v>415440.5496400001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>504301.01187</v>
+        <v>520063.39256</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>555606.65443</v>
+        <v>555722.9365299999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>601585.56805</v>
+        <v>601585.5680500001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>1059036.74625</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1197391.02556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1199447.16493</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1058488.487</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>266404.10374</v>
@@ -1229,22 +1170,22 @@
         <v>239006.6717</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>264422.5774300001</v>
+        <v>300279.58954</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>262372.74373</v>
+        <v>307250.26451</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>258334.09276</v>
+        <v>258843.94791</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>349990.82237</v>
+        <v>354401.51305</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>374471.70643</v>
+        <v>411736.5926999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>471491.21699</v>
+        <v>476371.91263</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>531438.48765</v>
@@ -1253,13 +1194,18 @@
         <v>1542986.60003</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>841200.6135900001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>848074.5849200002</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>830279.63</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>48327123.28024</v>
@@ -1268,193 +1214,218 @@
         <v>63836591.52287001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>90367588.45364998</v>
+        <v>92511469.76458</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>93393054.49528</v>
+        <v>97284046.89766</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>101743643.88482</v>
+        <v>102200995.46839</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>108923720.62172</v>
+        <v>116155020.5784</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>111903706.38299</v>
+        <v>120200027.98315</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>124740576.50875</v>
+        <v>125766583.86305</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>190396143.39855</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>269090217.89088</v>
+        <v>269118619.12905</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>264230529.49884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>264936378.38759</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>328669294.727</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>45860328.32609</v>
+        <v>45860328.32608999</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>58841459.6397</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>81649876.93042998</v>
+        <v>83571094.36056</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>87677300.59849001</v>
+        <v>91498652.27037001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>92045148.97053</v>
+        <v>92516994.95611</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>99427099.69216998</v>
+        <v>105354750.79705</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>100017806.83359</v>
+        <v>107480973.22218</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>107979481.67684</v>
+        <v>108947715.38883</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>163440942.63841</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>226496399.80876</v>
+        <v>226523409.17023</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>238177787.66057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>238798584.58416</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>282041595.483</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>41353621.2159</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>52486598.81905001</v>
+        <v>52486598.81905</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>72299285.99866</v>
+        <v>74142764.73299001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>77573520.02182001</v>
+        <v>81311761.48320998</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>82457072.14147</v>
+        <v>82870718.40837999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>87567664.20833999</v>
+        <v>93222292.05469</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>88111544.29863</v>
+        <v>95162121.0757</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>95400060.92987001</v>
+        <v>96353270.60043001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>143994385.043</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>202061227.521</v>
+        <v>202064666.98014</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>212797843.43721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>213157390.57196</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>248231743.777</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>3536948.04135</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>5153323.683779999</v>
+        <v>5153323.683780001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>7611342.698889999</v>
+        <v>7613908.61031</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>8174702.216219999</v>
+        <v>8181874.022639999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>7773099.684209999</v>
+        <v>7801165.964020001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>9273283.877499999</v>
+        <v>9417774.476879997</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9779658.228219997</v>
+        <v>9994262.557780003</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>10220219.52384</v>
+        <v>10229357.7074</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>16181539.88837</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>20684043.3341</v>
+        <v>20704196.94675</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>21254347.4908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21505032.98574</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>28528736.242</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>610964.3277900001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>590048.5043500001</v>
+        <v>590048.5043500003</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>628202.9452</v>
+        <v>628202.9452000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>816437.7939800001</v>
+        <v>825970.9405499999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>988191.8580600001</v>
+        <v>1006399.39162</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1332935.41806</v>
+        <v>1348901.19625</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1292433.93083</v>
+        <v>1424846.62351</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1348823.6277</v>
+        <v>1349335.36213</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1544515.6265</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2080698.686699999</v>
+        <v>2084114.97638</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2219848.31912</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2230127.48841</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2626784.212</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>358794.74105</v>
@@ -1463,22 +1434,22 @@
         <v>611488.6325199999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1111045.28768</v>
+        <v>1186218.07206</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1112640.56647</v>
+        <v>1179045.82397</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>826785.28679</v>
+        <v>838711.1920900001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1253216.18827</v>
+        <v>1365783.06923</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>834170.3759099998</v>
+        <v>899742.9651900001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1010377.59543</v>
+        <v>1015751.71887</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1720502.08054</v>
@@ -1487,52 +1458,62 @@
         <v>1670430.26696</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1905748.41344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1906033.53805</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2654331.252</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2466794.95415</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4995131.88317</v>
+        <v>4995131.883169999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8717711.523219999</v>
+        <v>8940375.404019998</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5715753.89679</v>
+        <v>5785394.627289999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>9698494.914290003</v>
+        <v>9684000.512279999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>9496620.92955</v>
+        <v>10800269.78135</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>11885899.5494</v>
+        <v>12719054.76097</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>16761094.83191</v>
+        <v>16818868.47422</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>26955200.76013999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>42593818.08211999</v>
+        <v>42595209.95882</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>26052741.83827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>26137793.80343</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>46627699.244</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2440642.15907</v>
@@ -1541,37 +1522,42 @@
         <v>2820091.69219</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3268879.66755</v>
+        <v>3315761.635550001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3712339.99785</v>
+        <v>3780103.28779</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4200753.764119999</v>
+        <v>4208041.55345</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4710401.345229999</v>
+        <v>4867784.67217</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5120581.06247</v>
+        <v>5487100.410759999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6319470.63447</v>
+        <v>6342809.22336</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>8044162.937250001</v>
+        <v>8044162.937249999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9945061.68245</v>
+        <v>9957247.672319999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11193219.37876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11231254.12375</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12632849.075</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>16840.04047</v>
@@ -1580,37 +1566,42 @@
         <v>25420.76941</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>29392.10693</v>
+        <v>30431.49738</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>28349.74201</v>
+        <v>29588.21465</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>22801.20015</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>24453.53242</v>
+        <v>25274.87789</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>16993.08424</v>
+        <v>24732.94974</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>35843.52172</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>35565.89664</v>
+        <v>35565.89663999999</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>47925.51521</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>72972.95011999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>72972.95012000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>90476.993</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1276057.04623</v>
@@ -1619,37 +1610,42 @@
         <v>1439913.14202</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1667624.37177</v>
+        <v>1672382.11127</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1957087.90162</v>
+        <v>1977978.26456</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2197614.315159999</v>
+        <v>2197730.15805</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2452646.430170001</v>
+        <v>2522938.45139</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2733919.326859999</v>
+        <v>2925365.28574</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3432833.41122</v>
+        <v>3439234.4268</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>4086498.28936</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5469537.740470001</v>
+        <v>5469764.319440001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6207398.502110001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6216546.51638</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7119382.393</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1147745.07237</v>
@@ -1658,76 +1654,86 @@
         <v>1354757.78076</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1571863.18885</v>
+        <v>1612948.0269</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1726902.35422</v>
+        <v>1772536.80858</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1980338.24881</v>
+        <v>1987510.19525</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2233301.38264</v>
+        <v>2319571.34289</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2369668.651370001</v>
+        <v>2537002.17528</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2850793.70153</v>
+        <v>2867731.274839999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3922098.751250001</v>
+        <v>3922098.75125</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4427598.42677</v>
+        <v>4439557.83767</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4912847.92653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4941734.657249999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5422989.689</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>26152.79508000016</v>
+        <v>26152.79508000007</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2175040.19098</v>
+        <v>2175040.190979999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5448831.855669999</v>
+        <v>5624613.768470001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2003413.89894</v>
+        <v>2005291.3395</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5497741.15017</v>
+        <v>5475958.95883</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4786219.584319999</v>
+        <v>5932485.109180001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6765318.486930001</v>
+        <v>7231954.35021</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>10441624.19744</v>
+        <v>10476059.25086</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>18911037.82289</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>32648756.39967</v>
+        <v>32637962.2865</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>14859522.45951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14906539.67968</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>33994850.169</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>3978681.74425</v>
@@ -1736,37 +1742,42 @@
         <v>4331150.57574</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5650232.928380001</v>
+        <v>5904941.92044</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5396276.67279</v>
+        <v>5637375.337000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>6629944.059580001</v>
+        <v>6654699.66795</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>10254329.04268</v>
+        <v>11598236.3407</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>15259841.20653</v>
+        <v>17006536.51057</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>19228601.69563001</v>
+        <v>19269904.53842</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>31247437.71026999</v>
+        <v>31247437.71027</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>88273425.24921</v>
+        <v>88294831.02712999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>55185460.16001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>55230089.57669</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>79067295.978</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>182365.42055</v>
@@ -1778,16 +1789,16 @@
         <v>33093.31924</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>182312.62413</v>
+        <v>185842.25425</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>35170.16013</v>
+        <v>39173.0078</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>690064.44602</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>61953.94447</v>
+        <v>63223.35577</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>124318.34784</v>
@@ -1799,13 +1810,18 @@
         <v>346004.56499</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>456036.7508699999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>456055.34857</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>234735.539</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>72392.71417000001</v>
@@ -1826,7 +1842,7 @@
         <v>1043167.55696</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>43354.50980000001</v>
+        <v>47566.42335</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>567304.07593</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>4333319.73521</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>895957.441</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>309741.36161</v>
@@ -1853,58 +1874,63 @@
         <v>331458.95089</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>473890.42482</v>
+        <v>477908.87658</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>511574.7946300001</v>
+        <v>524712.46672</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>437057.9334999999</v>
+        <v>452192.24388</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>475778.2045000001</v>
+        <v>540286.0490799999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>544195.53206</v>
+        <v>645390.5063800002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>632027.85595</v>
+        <v>636296.29178</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1031006.32528</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2182070.84729</v>
+        <v>2183020.7217</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1893170.600900001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1896201.31132</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2002648.204</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>6170.42921</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>37186.22778</v>
+        <v>37186.22777999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>46571.41926</v>
+        <v>46901.08861000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>15039.67645</v>
+        <v>15270.95815</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>18354.15203</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>11423.06956</v>
+        <v>11424.55893</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>21109.34792</v>
+        <v>21115.68231</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>12534.38687</v>
@@ -1918,50 +1944,60 @@
       <c r="M29" s="48" t="n">
         <v>26891.60273</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>33929.803</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>88141.25412000003</v>
+        <v>88141.25412</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>52791.39775</v>
+        <v>52791.39774999999</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>32207.42394</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>31794.47386</v>
+        <v>32517.62615</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>29389.75397999999</v>
+        <v>29389.75398</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>37925.17768</v>
+        <v>38578.60681</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>70871.81604000001</v>
+        <v>71847.76931999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>136137.25578</v>
+        <v>136149.94371</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>59773.94814</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>56371.47000000001</v>
+        <v>74122.07544000002</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>112111.7466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>112620.16901</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>104983.995</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>36580.37836</v>
@@ -1970,22 +2006,22 @@
         <v>30128.37809</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>61849.98648000001</v>
+        <v>61849.98647999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>47217.37519999999</v>
+        <v>47249.54846000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>15090.34113</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>47853.70096000001</v>
+        <v>47853.70096</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>44893.59737</v>
+        <v>49027.03079</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>139859.31901</v>
+        <v>139865.50028</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>251120.49819</v>
@@ -1994,13 +2030,18 @@
         <v>177574.01516</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>196580.71364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>196727.12217</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>212842.227</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2792390.19485</v>
@@ -2009,37 +2050,42 @@
         <v>3346437.40258</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4590127.93776</v>
+        <v>4835071.40409</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4020811.74569</v>
+        <v>4235077.858039999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5475557.585609999</v>
+        <v>5480773.11118</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7468136.927420001</v>
+        <v>8712101.208259998</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>13988921.87847</v>
+        <v>15601915.35345</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>16993901.70466</v>
+        <v>17030273.52488</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>27038048.17233</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>81442159.02864</v>
+        <v>81444200.27957</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>46467439.85510001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>46503163.77053999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>73626283.499</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6104.82006</v>
@@ -2048,10 +2094,10 @@
         <v>2479.74593</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>4671.60559</v>
+        <v>4682.294559999999</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>5758.29846</v>
+        <v>5790.22108</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>17902.14123</v>
@@ -2060,28 +2106,33 @@
         <v>37688.41819</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>28210.24008</v>
+        <v>28522.8538</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>47163.63343999999</v>
+        <v>47163.63344</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>47804.63324999999</v>
+        <v>47804.63325000001</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>338988.81896</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>277000.06301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>278619.7111599999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>87336.643</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>91400.64873</v>
+        <v>91400.64873000002</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>4e-05</v>
@@ -2093,13 +2144,13 @@
         <v>4163.68394</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>41.38604</v>
+        <v>419.4619300000001</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>468.90871</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>613.1595000000001</v>
+        <v>613.1595</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>538.85563</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>393394.5225899999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>358107.99233</v>
+        <v>358107.9923300001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>249667.81402</v>
+        <v>255074.52967</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>351003.04649</v>
+        <v>360149.76627</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>430317.9474000001</v>
+        <v>430342.7962600001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>441822.63268</v>
+        <v>476602.8867799999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>455717.1808200001</v>
+        <v>477314.3759</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>575355.1161499999</v>
+        <v>575998.83369</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>634301.51343</v>
+        <v>634301.5134299999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1016300.55092</v>
+        <v>1016964.59806</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1422370.23632</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1425951.95035</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1868578.627</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>2422320.82893</v>
@@ -2165,43 +2226,48 @@
         <v>2887483.15747</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4292009.96198</v>
+        <v>4678199.71939</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2975803.28005</v>
+        <v>3109684.153539999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6374621.49054</v>
+        <v>6380746.091569998</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6822081.01038</v>
+        <v>7762517.235520001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>14279082.67726</v>
+        <v>15181232.92847</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>15964903.21972</v>
+        <v>15983818.65213</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>25798575.37588</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>71316855.98968999</v>
+        <v>71322579.03864999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>43196277.09531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>43240527.77654</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>68559930.323</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>25730.42436</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>39912.76544999999</v>
+        <v>39912.76545000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>25203.15041</v>
@@ -2210,13 +2276,13 @@
         <v>24466.15024</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>19498.07865000001</v>
+        <v>19500.64099</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>16913.57782</v>
+        <v>25300.43147999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>22985.88342</v>
+        <v>23162.80797</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>28196.34972</v>
@@ -2225,16 +2291,21 @@
         <v>38658.89266</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>98987.10436</v>
+        <v>98987.10686</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>189075.97154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>189098.6025</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>109083.003</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>106110.74781</v>
@@ -2243,19 +2314,19 @@
         <v>60868.02705999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>66857.09914999999</v>
+        <v>69430.78653999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>103057.2714</v>
+        <v>108401.50761</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>160651.01229</v>
+        <v>160687.90874</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>183900.14011</v>
+        <v>184949.53052</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>337909.98847</v>
+        <v>355496.09164</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>242523.06692</v>
@@ -2267,13 +2338,18 @@
         <v>403733.0344600001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>311336.8185999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>312946.22836</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>279283.284</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>84632.61833</v>
@@ -2285,16 +2361,16 @@
         <v>37481.70465000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>26590.05376</v>
+        <v>26592.12861</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>46814.79289000001</v>
+        <v>49187.99289</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>23534.59146</v>
+        <v>24905.18818</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>91287.81088</v>
+        <v>95117.10952</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>71657.29073000001</v>
@@ -2306,64 +2382,74 @@
         <v>133335.21862</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>112314.65822</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>112318.12196</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>139355.805</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2017503.9771</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2535115.765519999</v>
+        <v>2535115.76552</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3964498.435730001</v>
+        <v>4347007.4118</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2618849.09208</v>
+        <v>2746444.935700001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5715944.98837</v>
+        <v>5719480.580949998</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6359039.26012</v>
+        <v>7252892.567970001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>13573841.39513</v>
+        <v>14446327.64178</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>15108760.82608</v>
+        <v>15127553.12157</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>24954731.35644</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>69023365.61435001</v>
+        <v>69027626.51718</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>41039348.00373001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>41075698.25297</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>67111490.07799999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4597.01721</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>3899.272559999999</v>
+        <v>3899.27256</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5381.100240000001</v>
+        <v>5414.57599</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>5112.10796</v>
+        <v>5115.68954</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>26588.22038</v>
@@ -2372,25 +2458,30 @@
         <v>40058.42062</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>33275.02198</v>
+        <v>36206.52262</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>48628.33592999999</v>
+        <v>48628.33593</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>59028.79524</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>349683.55383</v>
+        <v>349683.5538299999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>269248.08156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>270462.00001</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>99754.747</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4.872190000000001</v>
@@ -2408,7 +2499,7 @@
         <v>3438.8885</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>4.473789999999999</v>
+        <v>4.473790000000001</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>32.49343</v>
@@ -2417,7 +2508,7 @@
         <v>18.50026</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>761.1479400000001</v>
+        <v>761.1479399999999</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>60.68662</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1838.8651</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>228.417</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>183741.17193</v>
@@ -2438,76 +2534,86 @@
         <v>231420.66028</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>192585.21451</v>
+        <v>193658.83271</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>197675.76638</v>
+        <v>198610.90361</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>401685.50946</v>
+        <v>401861.85912</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>198630.54646</v>
+        <v>234406.62296</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>219750.08395</v>
+        <v>224890.26151</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>465118.8500799999</v>
+        <v>465241.987</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>453575.40705</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1307690.77745</v>
+        <v>1309152.92108</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1273114.69656</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1278165.70564</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>820734.9889999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2153053.15849</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2315579.631</v>
+        <v>2315579.631000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4512519.97321</v>
+        <v>4529243.123769999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2452645.69978</v>
+        <v>2554361.20318</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4771487.88945</v>
+        <v>4823513.15454</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4326943.594260001</v>
+        <v>4762489.97053</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6121652.179739999</v>
+        <v>7979133.436679999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7607503.42438</v>
+        <v>7651614.6202</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>8387746.2621</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>27693682.69217</v>
+        <v>27695132.60038</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>14957163.42144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>14984837.13041</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>22372979.527</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1496729.3281</v>
@@ -2516,115 +2622,130 @@
         <v>1324231.59056</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2434873.15594</v>
+        <v>2446873.94855</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1602080.32624</v>
+        <v>1699989.7701</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3218539.08018</v>
+        <v>3270564.34527</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3140443.21328</v>
+        <v>3298013.39159</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4324013.77676</v>
+        <v>5546762.40915</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5171302.696520001</v>
+        <v>5183458.49063</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6315977.4683</v>
+        <v>6315977.468299999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>18075151.24049</v>
+        <v>18076601.1487</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10902816.56147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>10930430.56714</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>14532334.843</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>656323.8303900001</v>
+        <v>656323.83039</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>991348.0404399999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2077646.81727</v>
+        <v>2082369.17522</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>850565.3735400001</v>
+        <v>854371.4330799999</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>1552948.80927</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1186500.38098</v>
+        <v>1464476.57894</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1797638.40298</v>
+        <v>2432371.02753</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2436200.72786</v>
+        <v>2468156.12957</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>2071768.7938</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>9618531.451680003</v>
+        <v>9618531.451680001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4054346.859970001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4054406.56327</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7840644.684</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-570539.4480900003</v>
+        <v>-570539.4480900002</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>1303127.97825</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2294534.84886</v>
+        <v>2322112.84575</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1971241.5919</v>
+        <v>1978621.31978</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>981575.82976</v>
+        <v>926399.3806700001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3891524.02236</v>
+        <v>5005714.24383</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1624424.83646</v>
+        <v>1078124.49563</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6097819.248969999</v>
+        <v>6110530.51695</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>15972153.89518</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>21911642.96702</v>
+        <v>21915081.6746</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>11891542.10277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>11911264.34942</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>22129236.297</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>254537.56196</v>
@@ -2633,61 +2754,66 @@
         <v>262378.23053</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>323607.48242</v>
+        <v>325128.30216</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>325477.6485900001</v>
+        <v>329025.28365</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>400258.60288</v>
+        <v>425497.63302</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>562757.28446</v>
+        <v>568492.63272</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>521965.98124</v>
+        <v>579015.2579099998</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>711731.77387</v>
+        <v>729842.6865299999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1155377.1714</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>711504.82491</v>
+        <v>717042.29825</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>974615.43936</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>976829.05749</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1101414.265</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>12248.25841</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>5250.550799999999</v>
+        <v>5250.5508</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>14614.59822</v>
+        <v>14614.62914</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>17913.26776999999</v>
+        <v>18177.93913</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>30632.05451</v>
+        <v>30849.47108</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>22884.4496</v>
+        <v>22885.21026</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>37202.1096</v>
+        <v>40953.69177</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>14621.16179</v>
+        <v>14622.48313</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>10140.55391</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>23126.67802</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>105045.37</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>242289.30355</v>
@@ -2711,76 +2842,86 @@
         <v>257127.67973</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>308992.8842</v>
+        <v>310513.67302</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>307564.38082</v>
+        <v>310847.34452</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>369626.54837</v>
+        <v>394648.1619400001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>539872.8348599999</v>
+        <v>545607.42246</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>484763.87164</v>
+        <v>538061.56614</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>697110.61208</v>
+        <v>715220.2034</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1145236.61749</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>692691.82306</v>
+        <v>698229.2964000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>951488.7613400001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>953702.3794699999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>996368.895</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>425305.2185200001</v>
+        <v>425305.2185199999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>350113.01468</v>
+        <v>350113.0146800001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1088740.09067</v>
+        <v>1089017.90876</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>459380.31294</v>
+        <v>468496.90495</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>475514.2518499999</v>
+        <v>477960.4454</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>691237.3270099999</v>
+        <v>692569.61672</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1055681.67694</v>
+        <v>1077266.44979</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>995204.06589</v>
+        <v>997066.51448</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>642389.8228699999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1018673.85026</v>
+        <v>1043920.16151</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1172280.64547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1180880.03383</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1020449.332</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>226080.34651</v>
@@ -2792,7 +2933,7 @@
         <v>221371.51471</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>157267.01037</v>
+        <v>163206.16094</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>229780.65184</v>
@@ -2801,25 +2942,30 @@
         <v>179319.40091</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>270641.77954</v>
+        <v>273500.7044800001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>260956.85862</v>
+        <v>261894.53031</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>328924.44771</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>314240.8508599999</v>
+        <v>314242.61678</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>454756.8132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>457348.95619</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>526814.7879999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>32353.72606</v>
@@ -2828,37 +2974,42 @@
         <v>31143.64006</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>425982.8748800001</v>
+        <v>426259.1560699999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>29503.36342</v>
+        <v>29960.32657999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>71820.68106999999</v>
+        <v>71995.38920999999</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>38095.70842</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>116003.00379</v>
+        <v>121606.39224</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>48290.13686</v>
+        <v>48408.3145</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>57653.04126999999</v>
+        <v>57653.04127000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>74164.04411999999</v>
+        <v>74313.61276999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>163831.29173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>163833.44795</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>101583.715</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>166871.14595</v>
@@ -2867,76 +3018,86 @@
         <v>141407.18156</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>441385.70108</v>
+        <v>441387.23798</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>272609.9391499999</v>
+        <v>275330.41743</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>173912.91894</v>
+        <v>176184.40435</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>473822.2176800001</v>
+        <v>475154.50739</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>669036.8936099999</v>
+        <v>682159.3530699998</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>685957.07041</v>
+        <v>686763.66967</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>255812.33389</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>630268.9552800001</v>
+        <v>655363.9319600001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>553692.5405400002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>559697.62969</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>392050.829</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-741307.1046499999</v>
+        <v>-741307.10465</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>1215393.1941</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1529402.24061</v>
+        <v>1558223.23915</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1837338.92755</v>
+        <v>1839149.69848</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>906320.18079</v>
+        <v>873936.5682900001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3763043.97981</v>
+        <v>4881637.259829999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1090709.14076</v>
+        <v>579873.3037499998</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5814346.956949999</v>
+        <v>5843306.689</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>16485141.24371</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>21604473.94166999</v>
+        <v>21588203.81134</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>11693876.89666</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>11707213.37308</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>22210201.23</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>179934.93919</v>
@@ -2945,37 +3106,42 @@
         <v>214891.08823</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>538166.5219599999</v>
+        <v>546767.0544599999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>413375.75831</v>
+        <v>422421.61308</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>489217.98462</v>
+        <v>489220.14601</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>577785.43042</v>
+        <v>650555.4700399999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>629397.50658</v>
+        <v>654794.3457900001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>862820.8190900001</v>
+        <v>862933.21975</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1834687.9833</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>4061729.7317</v>
+        <v>4061948.65331</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2354731.20218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2360642.90542</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4091722.222</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-921242.0438400001</v>
@@ -2984,34 +3150,37 @@
         <v>1000502.10587</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>991235.7186499999</v>
+        <v>1011456.18469</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1423963.16924</v>
+        <v>1416728.0854</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>417102.1961700001</v>
+        <v>384716.4222800001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3185258.54939</v>
+        <v>4231081.78979</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>461311.63418</v>
+        <v>-74921.0420400002</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4951526.137860001</v>
+        <v>4980373.46925</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>14650453.26041</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>17542744.20997</v>
+        <v>17526255.15803</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9339145.69448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9346570.467660002</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>18118479.008</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2400</v>
@@ -3038,34 +3210,37 @@
         <v>2391</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2618</v>
+        <v>2624</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2618</v>
+        <v>2626</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2674</v>
+        <v>2720</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2758</v>
+        <v>2781</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2870</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2751</v>
+        <v>3031</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3181</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>